--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>路径1：专利</t>
   </si>
@@ -44,18 +44,12 @@
     <t>专利</t>
   </si>
   <si>
-    <t>相对senior的AI人手</t>
-  </si>
-  <si>
     <t>路径3：现有方式</t>
   </si>
   <si>
     <t>继续自己找个坑卖自己，接受其他同事参与进来pair</t>
   </si>
   <si>
-    <t>相对junior的AI人手</t>
-  </si>
-  <si>
     <t>Tips</t>
   </si>
   <si>
@@ -80,28 +74,124 @@
     <t>据经验，senior的人在自己的领域基本都供不应求，能够随时轮转到我项目里的，除了撞大运基本都是junior人手</t>
   </si>
   <si>
-    <t>凡是我主导的团队，显然都会受到我的思维和经验的局限性所影响。Shadow到某个senior同事的项目里面或者能够很好的提升我的工程能力和经验，然而，可能还是要看运气的。</t>
-  </si>
-  <si>
     <t>路径4：给XR当秘书</t>
   </si>
   <si>
-    <t xml:space="preserve">对公司挺好，对个人不太划算。我要做这个真的不如找个高校合作了…… </t>
-  </si>
-  <si>
-    <t>反正都是每天拿俩小时自学，并不会影响我的专业能力。</t>
-  </si>
-  <si>
-    <t>没有Hands On这类实践所以不好评估，但是应该会带来新的视角。</t>
-  </si>
-  <si>
-    <t>主要包括思维方式（抽象、管理、三观）等难以量化的个人成长。坦白说，从2016年12月到2017年12月加入tw的一年内，未有变化。在视野和平台上略失望。作为类比，我在沙特当学生会主席并协理各种对内对外使馆活动的三年经历，给我的个人提升更大一些。</t>
-  </si>
-  <si>
-    <t>如果像然桑说的那样，我只有三年时间完成这个实验，那么可能我pair这样一年，或者能让我短平快的明白发生了什么，人类都在做什么甚至想要什么。</t>
-  </si>
-  <si>
-    <t>对公司来说并非利益最大化，我可以接受半薪或者停薪。</t>
+    <t>如果像然桑说的那样，我只有三年时间完成这个实验，那么可能我pair这样一年，或者是最有可能让我短平快的明白发生了什么，人类都在做什么甚至想要什么的方式。</t>
+  </si>
+  <si>
+    <t>由于对公司来说并非利益最大化，我可以接受半薪或者停薪。</t>
+  </si>
+  <si>
+    <t>反正都是每天拿俩小时自学，并不会影响我的专业能力。下一年我的期望值就是不被学术界抛弃，但是并没有期望自己带来新的研究进展。</t>
+  </si>
+  <si>
+    <t>没有Hands On这类实践，所以不好评估，但是应该会带来新的视角。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理想产出：科学的战略 / 战略的科学。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">对公司可能挺好，对个人不太划算。我要做这个真的不如找个高校合作了…… </t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>60%，市场/他人风险</t>
+  </si>
+  <si>
+    <t>0%，我觉得应该不会卖不出去</t>
+  </si>
+  <si>
+    <t>30% ， 个人研发/决策风险</t>
+  </si>
+  <si>
+    <t>相对senior的AI人手 / case study</t>
+  </si>
+  <si>
+    <t>相对junior的AI人手  / case study</t>
+  </si>
+  <si>
+    <t>凡是我主导的团队（专利或者自己挖坑），显然都会受到我的思维和经验的局限性所影响。Shadow到某个senior同事的项目里面或者能够很好的提升我的工程能力和经验，然而，可能还是要看运气的。</t>
+  </si>
+  <si>
+    <t>主要包括思维方式（抽象、管理、三观）等难以量化的个人成长。坦白说，从2016年12月到2017年12月加入tw的一年内，此项未有变化。在视野和平台上略失望。作为类比，我在沙特当学生会主席并协理各种对内对外使馆活动的三年经历，给我的个人提升更大一些。</t>
+  </si>
+  <si>
+    <t>你可以得到</t>
+  </si>
+  <si>
+    <t>信息过滤</t>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <t>日程安排，（替身）参与和总结记录</t>
+  </si>
+  <si>
+    <t>市场等特定领域的数据收集和模式识别</t>
+  </si>
+  <si>
+    <t>草拟（给定主题）的报告和胶片</t>
+  </si>
+  <si>
+    <t>我的强项</t>
+  </si>
+  <si>
+    <t>活动组织</t>
+  </si>
+  <si>
+    <t>安排/协调/组织大型活动及其资源</t>
+  </si>
+  <si>
+    <t>有科学素养，擅长Office全系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">总结了一下，由于我是能够焦虑到aggressive的人，很可能最后由于路径2缺乏市场机会or路径1缺乏有效团队和主题，而reduce到收益最低的路径3. </t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>驾车驾船上山下水救生这种无聊技能</t>
+  </si>
+  <si>
+    <t>包括</t>
+  </si>
+  <si>
+    <t>组织和主持千人级活动经验（连续三届华人春晚）</t>
+  </si>
+  <si>
+    <t>邮件/电话/会议的信息整理</t>
+  </si>
+  <si>
+    <t>英文中文流利，日文德文基础，有工程背景，能够快速提取有效信息</t>
+  </si>
+  <si>
+    <t>市场、活动与品牌</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>心理咨询</t>
+  </si>
+  <si>
+    <t>这个坦白说真的不想做不过如果缺个理由，我也就做了吧</t>
+  </si>
+  <si>
+    <t>其他秘书应该有的技能</t>
+  </si>
+  <si>
+    <t>认知行为疗法/人本主义思考</t>
+  </si>
+  <si>
+    <t>公开心理健康讲座与1v1辅导</t>
+  </si>
+  <si>
+    <t>我不想做路径3，如果2不行，我希望有路径4</t>
   </si>
 </sst>
 </file>
@@ -423,18 +513,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,7 +533,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="55.5" customHeight="1">
@@ -457,7 +550,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1">
@@ -468,41 +564,57 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="86.25" customHeight="1">
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="E6" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -535,7 +647,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -549,18 +661,18 @@
     </row>
     <row r="12" spans="1:5" ht="117.75" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -572,18 +684,105 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="60">
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
